--- a/account.xlsx
+++ b/account.xlsx
@@ -418,7 +418,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>willjun115</t>
+          <t>willjun115@</t>
         </is>
       </c>
     </row>
